--- a/raw_data/cat_deletion/deletion_fraction/YK0085/181202.xlsx
+++ b/raw_data/cat_deletion/deletion_fraction/YK0085/181202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuta_koganezawa/Documents/Wakamoto_lab/paper_data/raw_data/cat_deletion/deletion_fraction/YK0085/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuta_koganezawa/Documents/Wakamoto_lab/paper_data/Phenotypic_Buffering/raw_data/cat_deletion/deletion_fraction/YK0085/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44297F50-01C5-2B4A-A295-B12DF8991E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472C3A75-58AC-3B49-9449-50A9AFF54979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="4360" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{1D842626-8EE7-904D-8908-49AD481FFCA6}"/>
+    <workbookView xWindow="2500" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1D842626-8EE7-904D-8908-49AD481FFCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Probability" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -500,6 +500,10 @@
   </si>
   <si>
     <t>Pos28:0616-0940-0961:img_000000307_Txred_000</t>
+  </si>
+  <si>
+    <t>flow 1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -865,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8458A874-F732-2D4F-8B7C-B3F623F8B493}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1070,6 +1074,9 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
@@ -1351,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C6D0F8-621A-EF47-A1E8-DCFF23269B57}">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
